--- a/0408/반복문문제.xlsx
+++ b/0408/반복문문제.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="삼각형" sheetId="1" r:id="rId1"/>
     <sheet name="피라미드" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -219,7 +220,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -273,6 +274,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -721,7 +725,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView topLeftCell="A5" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
@@ -942,4 +946,120 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:F19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="2:6" s="18" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:6" s="18" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:6" s="18" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:6" s="18" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="2:6" s="18" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="2:6" s="18" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2</v>
+      </c>
+      <c r="D6" s="1">
+        <v>3</v>
+      </c>
+      <c r="E6" s="1">
+        <v>4</v>
+      </c>
+      <c r="F6" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" s="18" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="1">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1">
+        <v>7</v>
+      </c>
+      <c r="D7" s="1">
+        <v>8</v>
+      </c>
+      <c r="E7" s="1">
+        <v>9</v>
+      </c>
+      <c r="F7" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" s="18" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="1">
+        <v>11</v>
+      </c>
+      <c r="C8" s="1">
+        <v>12</v>
+      </c>
+      <c r="D8" s="1">
+        <v>13</v>
+      </c>
+      <c r="E8" s="1">
+        <v>14</v>
+      </c>
+      <c r="F8" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" s="18" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="1">
+        <v>16</v>
+      </c>
+      <c r="C9" s="1">
+        <v>17</v>
+      </c>
+      <c r="D9" s="1">
+        <v>18</v>
+      </c>
+      <c r="E9" s="1">
+        <v>19</v>
+      </c>
+      <c r="F9" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" s="18" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="1">
+        <v>21</v>
+      </c>
+      <c r="C10" s="1">
+        <v>22</v>
+      </c>
+      <c r="D10" s="1">
+        <v>23</v>
+      </c>
+      <c r="E10" s="1">
+        <v>24</v>
+      </c>
+      <c r="F10" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" s="18" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="2:6" s="18" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="2:6" s="18" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="2:6" s="18" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="2:6" s="18" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="2:6" s="18" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="17" s="18" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="18" s="18" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="19" s="18" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/0408/반복문문제.xlsx
+++ b/0408/반복문문제.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="삼각형" sheetId="1" r:id="rId1"/>
     <sheet name="피라미드" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
+    <sheet name="if_else 문제 결과" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>빈칸</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -65,6 +65,19 @@
   </si>
   <si>
     <t>=(i*2)+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if_else_quest.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 테이블 작성해서 숫자 넣음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 셀 조립하는 for문에서
+    if-else를 이용하여 클래스로 CSS 적용</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -137,7 +150,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -165,6 +178,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -220,7 +239,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -277,6 +296,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -950,114 +975,139 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:F19"/>
+  <dimension ref="B1:N19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="B7" sqref="B7:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="2:6" s="18" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:6" s="18" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:6" s="18" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="2:6" s="18" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="2:6" s="18" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="2:6" s="18" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="1">
+    <row r="1" spans="2:14" s="18" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:14" s="18" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:14" s="18" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:14" s="18" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="2:14" s="18" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="2:14" s="18" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="7">
         <v>1</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="7">
         <v>2</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="7">
         <v>3</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="7">
         <v>4</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="7">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="2:6" s="18" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="1">
+      <c r="H6" s="18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" s="18" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="19">
         <v>6</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="19">
         <v>7</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="19">
         <v>8</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="19">
         <v>9</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="19">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="2:6" s="18" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="1">
+    <row r="8" spans="2:14" s="18" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="7">
         <v>11</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="7">
         <v>12</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="7">
         <v>13</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="7">
         <v>14</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="7">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="2:6" s="18" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="1">
+      <c r="H8" s="18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" s="18" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="19">
         <v>16</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="19">
         <v>17</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="19">
         <v>18</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="19">
         <v>19</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="19">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" spans="2:6" s="18" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="1">
+      <c r="H9" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="20"/>
+    </row>
+    <row r="10" spans="2:14" s="18" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="7">
         <v>21</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="7">
         <v>22</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="7">
         <v>23</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="7">
         <v>24</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="7">
         <v>25</v>
       </c>
-    </row>
-    <row r="11" spans="2:6" s="18" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="2:6" s="18" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="2:6" s="18" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="2:6" s="18" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="2:6" s="18" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="2:6" s="18" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="20"/>
+    </row>
+    <row r="11" spans="2:14" s="18" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="2:14" s="18" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="2:14" s="18" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="2:14" s="18" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="2:14" s="18" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="2:14" s="18" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="17" s="18" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="18" s="18" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="19" s="18" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="H9:N10"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
